--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\me\xtra\CAI\RPA\Assignments\Outlook\Heartbeat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BFAFC1-5634-4892-A65A-F9A70E8AC182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A112969-7835-479E-9AF2-DCEFA94825F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Work day URL for On boarding process.</t>
+  </si>
+  <si>
+    <t>Heartbeat Automation is SUCCESS</t>
   </si>
 </sst>
 </file>
@@ -555,15 +558,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -612,7 +615,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="28.8">
+    <row r="4" spans="1:26" ht="29">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -692,22 +695,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1692,12 +1702,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1734,7 +1744,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2804,12 +2814,12 @@
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="60.36328125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundarsi\me\xtra\CAI\RPA\Assignments\Outlook\Heartbeat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A112969-7835-479E-9AF2-DCEFA94825F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7D28A5-F6BF-49A0-824C-85D5DE64B069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
-    <t>Exceptions_Screenshots</t>
   </si>
   <si>
     <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
@@ -133,9 +130,6 @@
     <t>workday_username</t>
   </si>
   <si>
-    <t>caiMSP_Onboarding_Bot1_user</t>
-  </si>
-  <si>
     <t>workday_password</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t xml:space="preserve">RPA.Support@cai.io </t>
   </si>
   <si>
-    <t>support_email</t>
-  </si>
-  <si>
     <t>process_name</t>
   </si>
   <si>
@@ -169,7 +160,28 @@
     <t>Work day URL for On boarding process.</t>
   </si>
   <si>
-    <t>Heartbeat Automation is SUCCESS</t>
+    <t>support_email_cc</t>
+  </si>
+  <si>
+    <t>support_email_to</t>
+  </si>
+  <si>
+    <t>Message_Success</t>
+  </si>
+  <si>
+    <t>Message_Failure</t>
+  </si>
+  <si>
+    <t>Heartbeat Automation SUCCESS</t>
+  </si>
+  <si>
+    <t>Heartbeat Automation FAILURE</t>
+  </si>
+  <si>
+    <t>Heartbeat\Data\Output\</t>
+  </si>
+  <si>
+    <t>caiMSP_Onboarding_Bot1_user1</t>
   </si>
 </sst>
 </file>
@@ -557,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -605,109 +617,121 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="29">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="5"/>
+    </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1690,9 +1714,10 @@
     <hyperlink ref="C16" r:id="rId2" display="mailto:RPA.Support@cai.io" xr:uid="{30D4EC9A-38CB-4F53-A925-C33BD93E955B}"/>
     <hyperlink ref="B16" r:id="rId3" xr:uid="{07EBAB8A-F385-4D39-8552-EE1A4A5CE302}"/>
     <hyperlink ref="B12" r:id="rId4" xr:uid="{EE8CF577-F13C-4F16-87CE-F7DDF58A9076}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{A4A2A084-87AC-4CFC-8AFF-730B0D07C91F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1700,7 +1725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1752,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1761,66 +1788,66 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2830,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
